--- a/DateTables/Datas/アイテム.xlsx
+++ b/DateTables/Datas/アイテム.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\luban_examples-main\MiniTemplate\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ruby_etc\ruby_object\wand_sword_saga_ruby\DateTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94098E27-C9C9-4853-9DFF-A1511D6672E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282D07AE-04FC-47B3-A39F-8BFEAFE38F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="840" windowWidth="24540" windowHeight="18180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12885" yWindow="4110" windowWidth="19530" windowHeight="16635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,34 @@
   </si>
   <si>
     <t>スタミナ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入らない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アイテム</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍛造石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BagType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,17 +506,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -499,22 +527,22 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -528,22 +556,22 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
@@ -556,7 +584,7 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="H3" t="s">
@@ -577,19 +605,19 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
@@ -600,13 +628,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
+      <c r="F5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -614,13 +642,13 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
+      <c r="F6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -628,13 +656,13 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
+      <c r="F7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -642,13 +670,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
+      <c r="F8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -656,13 +684,64 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>200001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>200002</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>200003</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>999</v>
       </c>
     </row>
   </sheetData>

--- a/DateTables/Datas/アイテム.xlsx
+++ b/DateTables/Datas/アイテム.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ruby_etc\ruby_object\wand_sword_saga_ruby\DateTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282D07AE-04FC-47B3-A39F-8BFEAFE38F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25C6ADF-5FA8-428B-8BC1-79B2107ADC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12885" yWindow="4110" windowWidth="19530" windowHeight="16635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -662,7 +662,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -676,7 +676,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">

--- a/DateTables/Datas/アイテム.xlsx
+++ b/DateTables/Datas/アイテム.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ruby_etc\ruby_object\wand_sword_saga_ruby\DateTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25C6ADF-5FA8-428B-8BC1-79B2107ADC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59930B6A-239E-4F1B-9601-5D870E283F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12885" yWindow="4110" windowWidth="19530" windowHeight="16635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>ssri pc</author>
+  </authors>
+  <commentList>
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{22A139C8-B60C-40FB-AA4C-725B43120F43}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ssri pc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0は無上限
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +210,10 @@
   </si>
   <si>
     <t>BagType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>経験値</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +242,21 @@
       <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -505,11 +561,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -693,29 +749,26 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>200001</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11">
-        <v>999</v>
+    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>200002</v>
+        <v>200001</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
@@ -729,10 +782,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13">
-        <v>200003</v>
+        <v>200002</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
         <v>29</v>
@@ -741,11 +794,29 @@
         <v>30</v>
       </c>
       <c r="G13">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>200003</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14">
         <v>999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/DateTables/Datas/アイテム.xlsx
+++ b/DateTables/Datas/アイテム.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ruby_etc\ruby_object\wand_sword_saga_ruby\DateTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59930B6A-239E-4F1B-9601-5D870E283F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA43887-9749-4950-A590-6299878CB148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,12 +66,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{2A528F9B-F98D-478A-83FB-DE04E602E2BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ssri pc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+１==　true</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +240,14 @@
   </si>
   <si>
     <t>経験値</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_mark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新着目印</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +599,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -603,6 +637,9 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -649,9 +686,6 @@
       <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -677,6 +711,9 @@
       </c>
       <c r="I4" t="s">
         <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
